--- a/REGULAR/OJT/MONTENEGRO, MARISSA.xlsx
+++ b/REGULAR/OJT/MONTENEGRO, MARISSA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE64F0D-494F-4203-B5CA-59E670C512DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="626" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="626" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="465">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1435,7 +1434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2164,7 +2163,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2206,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2270,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2330,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2396,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2459,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2557,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2616,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2681,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2724,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2799,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2985,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3051,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3109,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3175,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3231,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3306,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3349,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3415,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3471,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3550,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3568,25 +3567,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3893,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3903,7 +3902,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3911,34 +3910,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K706"/>
+  <dimension ref="A2:K707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A625" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A622" activePane="bottomLeft"/>
       <selection activeCell="C12" sqref="C12:C13"/>
-      <selection pane="bottomLeft" activeCell="K633" sqref="K633"/>
+      <selection pane="bottomLeft" activeCell="I634" sqref="I634"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3981,7 +3980,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +4002,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4011,7 +4010,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4024,7 +4023,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -4041,7 +4040,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4095,12 +4094,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>21.127000000000066</v>
+        <v>20.127000000000066</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>92</v>
       </c>
@@ -4122,7 +4121,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>93</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>35566</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35582</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>35612</v>
@@ -4199,7 +4198,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" ref="A15:A19" si="0">EDATE(A14,1)</f>
         <v>35643</v>
@@ -4226,7 +4225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4247,7 +4246,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4272,7 +4271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A17,1)</f>
         <v>35735</v>
@@ -4293,7 +4292,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4314,7 +4313,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>99</v>
       </c>
@@ -4332,7 +4331,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35796</v>
       </c>
@@ -4352,7 +4351,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A21,1)</f>
         <v>35827</v>
@@ -4373,7 +4372,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A29" si="1">EDATE(A22,1)</f>
         <v>35855</v>
@@ -4400,7 +4399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4421,7 +4420,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4448,7 +4447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4473,7 +4472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4500,7 +4499,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4521,7 +4520,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4548,7 +4547,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>107</v>
@@ -4565,7 +4564,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36069</v>
@@ -4590,7 +4589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>106</v>
@@ -4609,7 +4608,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36100</v>
@@ -4636,7 +4635,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>110</v>
@@ -4653,7 +4652,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36130</v>
@@ -4680,7 +4679,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>102</v>
@@ -4702,7 +4701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>111</v>
@@ -4722,7 +4721,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>113</v>
       </c>
@@ -4740,7 +4739,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36161</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>106</v>
@@ -4783,7 +4782,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>115</v>
@@ -4800,7 +4799,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36192</v>
@@ -4827,7 +4826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>106</v>
@@ -4846,7 +4845,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>117</v>
@@ -4863,7 +4862,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>36220</v>
@@ -4888,7 +4887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>102</v>
@@ -4907,7 +4906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>119</v>
@@ -4924,7 +4923,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>36251</v>
@@ -4949,7 +4948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>106</v>
@@ -4971,7 +4970,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>123</v>
@@ -4988,7 +4987,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f>EDATE(A48,1)</f>
         <v>36281</v>
@@ -5015,7 +5014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>100</v>
@@ -5034,7 +5033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>124</v>
@@ -5051,7 +5050,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A51,1)</f>
         <v>36312</v>
@@ -5078,7 +5077,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>127</v>
@@ -5095,7 +5094,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36342</v>
@@ -5122,7 +5121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A59" si="2">EDATE(A56,1)</f>
         <v>36373</v>
@@ -5147,7 +5146,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -5174,7 +5173,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -5201,7 +5200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>129</v>
@@ -5218,7 +5217,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36465</v>
@@ -5245,7 +5244,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>116</v>
@@ -5264,7 +5263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36495</v>
@@ -5291,7 +5290,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>136</v>
@@ -5311,7 +5310,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>137</v>
       </c>
@@ -5329,7 +5328,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36526</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>116</v>
@@ -5372,7 +5371,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>106</v>
@@ -5391,7 +5390,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>139</v>
@@ -5408,7 +5407,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A66,1)</f>
         <v>36557</v>
@@ -5435,7 +5434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>136</v>
@@ -5452,7 +5451,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5477,7 +5476,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>102</v>
@@ -5496,7 +5495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>106</v>
@@ -5515,7 +5514,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5542,7 +5541,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>142</v>
@@ -5559,7 +5558,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36647</v>
@@ -5586,7 +5585,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>116</v>
@@ -5605,7 +5604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>116</v>
@@ -5624,7 +5623,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>105</v>
@@ -5641,7 +5640,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>143</v>
@@ -5658,7 +5657,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5685,7 +5684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>106</v>
@@ -5704,7 +5703,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -5729,7 +5728,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" ref="A85:A89" si="3">EDATE(A84,1)</f>
         <v>36739</v>
@@ -5756,7 +5755,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -5781,7 +5780,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -5802,7 +5801,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -5823,7 +5822,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -5850,7 +5849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>151</v>
       </c>
@@ -5868,7 +5867,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36892</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>116</v>
@@ -5911,7 +5910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36923</v>
@@ -5938,7 +5937,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -5955,7 +5954,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>36951</v>
@@ -5982,7 +5981,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>102</v>
@@ -6001,7 +6000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36982</v>
@@ -6022,7 +6021,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" ref="A98:A105" si="4">EDATE(A97,1)</f>
         <v>37012</v>
@@ -6049,7 +6048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>105</v>
@@ -6066,7 +6065,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>37043</v>
@@ -6093,7 +6092,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6120,7 +6119,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>106</v>
@@ -6139,7 +6138,7 @@
         <v>46935</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6158,7 +6157,7 @@
         <v>46569</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A101,1)</f>
         <v>37104</v>
@@ -6179,7 +6178,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -6206,7 +6205,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>106</v>
@@ -6225,7 +6224,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>37165</v>
@@ -6252,7 +6251,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>116</v>
@@ -6271,7 +6270,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>129</v>
@@ -6288,7 +6287,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A107,1)</f>
         <v>37196</v>
@@ -6315,7 +6314,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>102</v>
@@ -6334,7 +6333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A110,1)</f>
         <v>37226</v>
@@ -6355,7 +6354,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>158</v>
       </c>
@@ -6373,7 +6372,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37257</v>
@@ -6398,7 +6397,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" ref="A115:A226" si="5">EDATE(A114,1)</f>
         <v>37288</v>
@@ -6423,7 +6422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="5"/>
         <v>37316</v>
@@ -6450,7 +6449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6472,7 +6471,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37347</v>
@@ -6497,7 +6496,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -6522,7 +6521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -6543,7 +6542,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -6570,7 +6569,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -6597,7 +6596,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>183</v>
@@ -6614,7 +6613,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37500</v>
@@ -6641,7 +6640,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>185</v>
@@ -6658,7 +6657,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37530</v>
@@ -6683,7 +6682,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -6710,7 +6709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>187</v>
@@ -6727,7 +6726,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37591</v>
@@ -6752,7 +6751,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>159</v>
       </c>
@@ -6770,7 +6769,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -6795,7 +6794,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="5"/>
         <v>37653</v>
@@ -6822,7 +6821,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>106</v>
@@ -6841,7 +6840,7 @@
         <v>46784</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>105</v>
@@ -6858,7 +6857,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37681</v>
@@ -6885,7 +6884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>106</v>
@@ -6904,7 +6903,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>106</v>
@@ -6923,7 +6922,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>105</v>
@@ -6940,7 +6939,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>37712</v>
@@ -6961,7 +6960,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -6982,7 +6981,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -7009,7 +7008,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>105</v>
@@ -7026,7 +7025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>37803</v>
@@ -7053,7 +7052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -7074,7 +7073,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -7099,7 +7098,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -7124,7 +7123,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -7149,7 +7148,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -7174,7 +7173,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>198</v>
@@ -7191,7 +7190,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>160</v>
       </c>
@@ -7209,7 +7208,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>37987</v>
@@ -7236,7 +7235,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>199</v>
@@ -7253,7 +7252,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>38018</v>
@@ -7280,7 +7279,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7297,7 +7296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>201</v>
@@ -7314,7 +7313,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38047</v>
@@ -7339,7 +7338,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -7364,7 +7363,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -7391,7 +7390,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>105</v>
@@ -7408,7 +7407,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>188</v>
@@ -7425,7 +7424,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A158,1)</f>
         <v>38139</v>
@@ -7450,7 +7449,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -7477,7 +7476,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>134</v>
@@ -7496,7 +7495,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>208</v>
@@ -7513,7 +7512,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38200</v>
@@ -7540,7 +7539,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>116</v>
@@ -7559,7 +7558,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>209</v>
@@ -7576,7 +7575,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38231</v>
@@ -7603,7 +7602,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>211</v>
@@ -7620,7 +7619,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A168,1)</f>
         <v>38261</v>
@@ -7645,7 +7644,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>212</v>
@@ -7662,7 +7661,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A170,1)</f>
         <v>38292</v>
@@ -7689,7 +7688,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>106</v>
@@ -7708,7 +7707,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>213</v>
@@ -7725,7 +7724,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38322</v>
@@ -7750,7 +7749,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>161</v>
       </c>
@@ -7768,7 +7767,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38353</v>
@@ -7795,7 +7794,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>116</v>
@@ -7814,7 +7813,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>216</v>
@@ -7831,7 +7830,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38384</v>
@@ -7858,7 +7857,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>116</v>
@@ -7877,7 +7876,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>105</v>
@@ -7895,7 +7894,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>220</v>
@@ -7914,7 +7913,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A180,1)</f>
         <v>38412</v>
@@ -7939,7 +7938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>224</v>
@@ -7956,7 +7955,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38443</v>
@@ -7983,7 +7982,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>134</v>
@@ -8002,7 +8001,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>226</v>
@@ -8019,7 +8018,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>38473</v>
@@ -8044,7 +8043,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="5"/>
         <v>38504</v>
@@ -8071,7 +8070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>100</v>
@@ -8090,7 +8089,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>230</v>
@@ -8107,7 +8106,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>38534</v>
@@ -8134,7 +8133,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>116</v>
@@ -8153,7 +8152,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>106</v>
@@ -8172,7 +8171,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>235</v>
@@ -8189,7 +8188,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A193,1)</f>
         <v>38565</v>
@@ -8214,7 +8213,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="5"/>
         <v>38596</v>
@@ -8241,7 +8240,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>116</v>
@@ -8260,7 +8259,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>238</v>
@@ -8277,7 +8276,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38626</v>
@@ -8304,7 +8303,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>239</v>
@@ -8321,7 +8320,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38657</v>
@@ -8348,7 +8347,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>243</v>
@@ -8365,7 +8364,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38687</v>
@@ -8392,7 +8391,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>245</v>
@@ -8409,7 +8408,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>162</v>
       </c>
@@ -8427,7 +8426,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A205,1)</f>
         <v>38718</v>
@@ -8454,7 +8453,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>105</v>
@@ -8471,7 +8470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>246</v>
@@ -8488,7 +8487,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A208,1)</f>
         <v>38749</v>
@@ -8515,7 +8514,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>106</v>
@@ -8534,7 +8533,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>247</v>
@@ -8551,7 +8550,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38777</v>
@@ -8576,7 +8575,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="5"/>
         <v>38808</v>
@@ -8603,7 +8602,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>100</v>
@@ -8625,7 +8624,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>249</v>
@@ -8642,7 +8641,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38838</v>
@@ -8667,7 +8666,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="5"/>
         <v>38869</v>
@@ -8694,7 +8693,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>253</v>
@@ -8711,7 +8710,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A219,1)</f>
         <v>38899</v>
@@ -8736,7 +8735,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="5"/>
         <v>38930</v>
@@ -8761,7 +8760,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="5"/>
         <v>38961</v>
@@ -8788,7 +8787,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>257</v>
@@ -8805,7 +8804,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>38991</v>
@@ -8830,7 +8829,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="5"/>
         <v>39022</v>
@@ -8857,7 +8856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>259</v>
@@ -8874,7 +8873,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>39052</v>
@@ -8901,7 +8900,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>197</v>
@@ -8918,7 +8917,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>261</v>
@@ -8935,7 +8934,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>163</v>
       </c>
@@ -8953,7 +8952,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A228,1)</f>
         <v>39083</v>
@@ -8980,7 +8979,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>262</v>
@@ -8997,7 +8996,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39114</v>
@@ -9022,7 +9021,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>264</v>
@@ -9039,7 +9038,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39142</v>
@@ -9066,7 +9065,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>105</v>
@@ -9083,7 +9082,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>102</v>
@@ -9102,7 +9101,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>265</v>
@@ -9119,7 +9118,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39173</v>
@@ -9144,7 +9143,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" ref="A241:A373" si="6">EDATE(A240,1)</f>
         <v>39203</v>
@@ -9169,7 +9168,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="6"/>
         <v>39234</v>
@@ -9194,7 +9193,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>272</v>
@@ -9211,7 +9210,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39264</v>
@@ -9236,7 +9235,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="6"/>
         <v>39295</v>
@@ -9261,7 +9260,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>229</v>
@@ -9280,7 +9279,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>116</v>
@@ -9299,7 +9298,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>229</v>
@@ -9318,7 +9317,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A245,1)</f>
         <v>39326</v>
@@ -9345,7 +9344,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>278</v>
@@ -9366,7 +9365,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>279</v>
@@ -9383,7 +9382,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39356</v>
@@ -9410,7 +9409,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>283</v>
@@ -9429,7 +9428,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>282</v>
@@ -9448,7 +9447,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>186</v>
@@ -9465,7 +9464,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39387</v>
@@ -9492,7 +9491,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>105</v>
@@ -9509,7 +9508,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>241</v>
@@ -9528,7 +9527,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>287</v>
@@ -9545,7 +9544,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39417</v>
@@ -9570,7 +9569,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
         <v>164</v>
       </c>
@@ -9588,7 +9587,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>39448</v>
@@ -9613,7 +9612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>291</v>
@@ -9630,7 +9629,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>39479</v>
@@ -9657,7 +9656,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>116</v>
@@ -9676,7 +9675,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>293</v>
@@ -9693,7 +9692,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>295</v>
@@ -9710,7 +9709,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="55"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A264,1)</f>
         <v>39508</v>
@@ -9737,7 +9736,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>296</v>
@@ -9754,7 +9753,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -9781,7 +9780,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>297</v>
@@ -9798,7 +9797,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -9825,7 +9824,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>116</v>
@@ -9844,7 +9843,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>299</v>
@@ -9861,7 +9860,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>39600</v>
@@ -9888,7 +9887,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>116</v>
@@ -9907,7 +9906,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>300</v>
@@ -9924,7 +9923,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A275,1)</f>
         <v>39630</v>
@@ -9951,7 +9950,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>279</v>
@@ -9968,7 +9967,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39661</v>
@@ -9995,7 +9994,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>283</v>
@@ -10014,7 +10013,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>303</v>
@@ -10031,7 +10030,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f>EDATE(A280,1)</f>
         <v>39692</v>
@@ -10058,7 +10057,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>306</v>
@@ -10078,7 +10077,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>39722</v>
@@ -10107,7 +10106,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>307</v>
@@ -10124,7 +10123,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>39753</v>
@@ -10151,7 +10150,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>310</v>
@@ -10168,7 +10167,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>39783</v>
@@ -10195,7 +10194,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>312</v>
@@ -10212,7 +10211,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="48" t="s">
         <v>165</v>
       </c>
@@ -10230,7 +10229,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>39814</v>
@@ -10255,7 +10254,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>314</v>
@@ -10272,7 +10271,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>39845</v>
@@ -10297,7 +10296,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="6"/>
         <v>39873</v>
@@ -10322,7 +10321,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>105</v>
@@ -10339,7 +10338,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>318</v>
@@ -10356,7 +10355,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A295,1)</f>
         <v>39904</v>
@@ -10381,7 +10380,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -10406,7 +10405,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -10431,7 +10430,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -10456,7 +10455,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>322</v>
@@ -10473,7 +10472,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A301,1)</f>
         <v>40026</v>
@@ -10498,7 +10497,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -10525,7 +10524,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>322</v>
@@ -10542,7 +10541,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40087</v>
@@ -10567,7 +10566,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -10592,7 +10591,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -10617,7 +10616,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="48" t="s">
         <v>166</v>
       </c>
@@ -10635,7 +10634,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>40179</v>
@@ -10662,7 +10661,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>235</v>
@@ -10679,7 +10678,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="55"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>40210</v>
@@ -10704,7 +10703,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="6"/>
         <v>40238</v>
@@ -10729,7 +10728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>329</v>
@@ -10746,7 +10745,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>40269</v>
@@ -10771,7 +10770,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="6"/>
         <v>40299</v>
@@ -10796,7 +10795,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -10823,7 +10822,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>105</v>
@@ -10840,7 +10839,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f>EDATE(A317,1)</f>
         <v>40360</v>
@@ -10865,7 +10864,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -10890,7 +10889,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -10915,7 +10914,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -10940,7 +10939,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -10967,7 +10966,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>337</v>
@@ -10984,7 +10983,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40513</v>
@@ -11011,7 +11010,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>340</v>
@@ -11028,7 +11027,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="48" t="s">
         <v>167</v>
       </c>
@@ -11046,7 +11045,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>40544</v>
@@ -11071,7 +11070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>116</v>
@@ -11090,7 +11089,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>342</v>
@@ -11107,7 +11106,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>40575</v>
@@ -11134,7 +11133,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>106</v>
@@ -11153,7 +11152,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>106</v>
@@ -11172,7 +11171,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>106</v>
@@ -11191,7 +11190,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>344</v>
@@ -11208,7 +11207,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A331,1)</f>
         <v>40603</v>
@@ -11235,7 +11234,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>100</v>
@@ -11254,7 +11253,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>105</v>
@@ -11271,7 +11270,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>345</v>
@@ -11288,7 +11287,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A336,1)</f>
         <v>40634</v>
@@ -11315,7 +11314,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>348</v>
@@ -11332,7 +11331,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40664</v>
@@ -11359,7 +11358,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>105</v>
@@ -11376,7 +11375,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>106</v>
@@ -11395,7 +11394,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>136</v>
@@ -11412,7 +11411,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A342,1)</f>
         <v>40695</v>
@@ -11439,7 +11438,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>116</v>
@@ -11458,7 +11457,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>350</v>
@@ -11475,7 +11474,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40725</v>
@@ -11504,7 +11503,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>355</v>
@@ -11521,7 +11520,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>40756</v>
@@ -11542,7 +11541,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>356</v>
@@ -11559,7 +11558,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>40787</v>
@@ -11586,7 +11585,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>116</v>
@@ -11608,7 +11607,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>359</v>
@@ -11625,7 +11624,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A353,1)</f>
         <v>40817</v>
@@ -11652,7 +11651,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>197</v>
@@ -11669,7 +11668,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>100</v>
@@ -11690,7 +11689,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>360</v>
@@ -11707,7 +11706,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A356,1)</f>
         <v>40848</v>
@@ -11736,7 +11735,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>363</v>
@@ -11753,7 +11752,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -11780,7 +11779,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>100</v>
@@ -11799,7 +11798,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>365</v>
@@ -11816,7 +11815,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="48" t="s">
         <v>168</v>
       </c>
@@ -11834,7 +11833,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A362,1)</f>
         <v>40909</v>
@@ -11859,7 +11858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>116</v>
@@ -11880,7 +11879,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>100</v>
@@ -11901,7 +11900,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>370</v>
@@ -11918,7 +11917,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>40940</v>
@@ -11947,7 +11946,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>115</v>
@@ -11964,7 +11963,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>40969</v>
@@ -11989,7 +11988,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="6"/>
         <v>41000</v>
@@ -12014,7 +12013,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>106</v>
@@ -12033,7 +12032,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>373</v>
@@ -12050,7 +12049,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>41030</v>
@@ -12077,7 +12076,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>106</v>
@@ -12096,7 +12095,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>100</v>
@@ -12115,7 +12114,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>374</v>
@@ -12132,7 +12131,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A376,1)</f>
         <v>41061</v>
@@ -12159,7 +12158,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>107</v>
@@ -12176,7 +12175,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A380,1)</f>
         <v>41091</v>
@@ -12205,7 +12204,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>229</v>
@@ -12226,7 +12225,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>106</v>
@@ -12245,7 +12244,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>377</v>
@@ -12262,7 +12261,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A382,1)</f>
         <v>41122</v>
@@ -12287,7 +12286,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" ref="A387:A508" si="7">EDATE(A386,1)</f>
         <v>41153</v>
@@ -12312,7 +12311,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>41183</v>
@@ -12339,7 +12338,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>105</v>
@@ -12356,7 +12355,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>383</v>
@@ -12373,7 +12372,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>41214</v>
@@ -12400,7 +12399,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>282</v>
@@ -12419,7 +12418,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>353</v>
@@ -12438,7 +12437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>384</v>
@@ -12455,7 +12454,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A391,1)</f>
         <v>41244</v>
@@ -12480,7 +12479,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="48" t="s">
         <v>169</v>
       </c>
@@ -12498,7 +12497,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41275</v>
@@ -12523,7 +12522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>278</v>
@@ -12544,7 +12543,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>195</v>
@@ -12561,7 +12560,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41306</v>
@@ -12590,7 +12589,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>388</v>
@@ -12607,7 +12606,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41334</v>
@@ -12634,7 +12633,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>105</v>
@@ -12651,7 +12650,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>390</v>
@@ -12668,7 +12667,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A402,1)</f>
         <v>41365</v>
@@ -12697,7 +12696,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>282</v>
@@ -12714,7 +12713,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>391</v>
@@ -12731,7 +12730,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>41395</v>
@@ -12758,7 +12757,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>136</v>
@@ -12775,7 +12774,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>41426</v>
@@ -12806,7 +12805,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>394</v>
@@ -12823,7 +12822,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41456</v>
@@ -12852,7 +12851,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>395</v>
@@ -12869,7 +12868,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41487</v>
@@ -12900,7 +12899,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>397</v>
@@ -12917,7 +12916,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41518</v>
@@ -12946,7 +12945,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>399</v>
@@ -12963,7 +12962,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A416,1)</f>
         <v>41548</v>
@@ -12988,7 +12987,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="7"/>
         <v>41579</v>
@@ -13013,7 +13012,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>402</v>
@@ -13030,7 +13029,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>41609</v>
@@ -13055,7 +13054,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>170</v>
       </c>
@@ -13073,7 +13072,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>41640</v>
@@ -13100,7 +13099,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>405</v>
@@ -13117,7 +13116,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41671</v>
@@ -13144,7 +13143,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>106</v>
@@ -13163,7 +13162,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>407</v>
@@ -13180,7 +13179,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f>EDATE(A425,1)</f>
         <v>41699</v>
@@ -13205,7 +13204,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="7"/>
         <v>41730</v>
@@ -13232,7 +13231,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>106</v>
@@ -13251,7 +13250,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>409</v>
@@ -13268,7 +13267,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A429,1)</f>
         <v>41760</v>
@@ -13293,7 +13292,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="7"/>
         <v>41791</v>
@@ -13318,7 +13317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>106</v>
@@ -13335,7 +13334,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>411</v>
@@ -13352,7 +13351,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A433,1)</f>
         <v>41821</v>
@@ -13379,7 +13378,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>116</v>
@@ -13398,7 +13397,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>105</v>
@@ -13415,7 +13414,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>334</v>
@@ -13432,7 +13431,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A436,1)</f>
         <v>41852</v>
@@ -13459,7 +13458,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>416</v>
@@ -13476,7 +13475,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>41883</v>
@@ -13503,7 +13502,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>418</v>
@@ -13520,7 +13519,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>41913</v>
@@ -13549,7 +13548,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>309</v>
@@ -13568,7 +13567,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>419</v>
@@ -13585,7 +13584,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>41944</v>
@@ -13612,7 +13611,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>422</v>
@@ -13629,7 +13628,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>41974</v>
@@ -13660,7 +13659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>353</v>
@@ -13679,7 +13678,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>423</v>
@@ -13696,7 +13695,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>171</v>
       </c>
@@ -13714,7 +13713,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A449,1)</f>
         <v>42005</v>
@@ -13739,7 +13738,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -13766,7 +13765,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>426</v>
@@ -13786,7 +13785,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42064</v>
@@ -13813,7 +13812,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>427</v>
@@ -13830,7 +13829,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42095</v>
@@ -13857,7 +13856,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>105</v>
@@ -13874,7 +13873,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>116</v>
@@ -13893,7 +13892,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -13912,7 +13911,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>429</v>
@@ -13929,7 +13928,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A458,1)</f>
         <v>42125</v>
@@ -13954,7 +13953,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -13979,7 +13978,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -14006,7 +14005,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>106</v>
@@ -14025,7 +14024,7 @@
         <v>11505</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>435</v>
@@ -14042,7 +14041,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A465,1)</f>
         <v>42217</v>
@@ -14067,7 +14066,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -14092,7 +14091,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>100</v>
@@ -14115,7 +14114,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>437</v>
@@ -14132,7 +14131,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A469,1)</f>
         <v>42278</v>
@@ -14157,7 +14156,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>440</v>
@@ -14174,7 +14173,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42309</v>
@@ -14199,7 +14198,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -14224,7 +14223,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="48" t="s">
         <v>172</v>
       </c>
@@ -14242,7 +14241,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f>EDATE(A475,1)</f>
         <v>42370</v>
@@ -14267,7 +14266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>116</v>
@@ -14286,7 +14285,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>444</v>
@@ -14303,7 +14302,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A477,1)</f>
         <v>42401</v>
@@ -14328,7 +14327,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -14355,7 +14354,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>106</v>
@@ -14374,7 +14373,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>105</v>
@@ -14391,7 +14390,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>448</v>
@@ -14408,7 +14407,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A481,1)</f>
         <v>42461</v>
@@ -14433,7 +14432,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="7"/>
         <v>42491</v>
@@ -14460,7 +14459,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>142</v>
@@ -14477,7 +14476,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>42522</v>
@@ -14502,7 +14501,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -14527,7 +14526,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -14552,7 +14551,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -14577,7 +14576,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -14602,7 +14601,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f t="shared" si="7"/>
         <v>42675</v>
@@ -14627,7 +14626,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -14654,7 +14653,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>105</v>
@@ -14671,7 +14670,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>106</v>
@@ -14690,7 +14689,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>458</v>
@@ -14707,7 +14706,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>173</v>
       </c>
@@ -14725,7 +14724,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>42736</v>
@@ -14750,7 +14749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>106</v>
@@ -14769,7 +14768,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f>EDATE(A499,1)</f>
         <v>42767</v>
@@ -14794,7 +14793,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -14815,7 +14814,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -14840,7 +14839,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="7"/>
         <v>42856</v>
@@ -14867,7 +14866,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>102</v>
@@ -14886,7 +14885,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>116</v>
@@ -14905,7 +14904,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A504,1)</f>
         <v>42887</v>
@@ -14926,7 +14925,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" si="7"/>
         <v>42917</v>
@@ -14953,7 +14952,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A508,1)</f>
         <v>42948</v>
@@ -14980,7 +14979,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>109</v>
@@ -14999,7 +14998,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>106</v>
@@ -15018,7 +15017,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>106</v>
@@ -15037,7 +15036,7 @@
         <v>11536</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f>EDATE(A509,1)</f>
         <v>42979</v>
@@ -15064,7 +15063,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>106</v>
@@ -15086,7 +15085,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f>EDATE(A513,1)</f>
         <v>43009</v>
@@ -15113,7 +15112,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>102</v>
@@ -15132,7 +15131,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>106</v>
@@ -15151,7 +15150,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A515,1)</f>
         <v>43040</v>
@@ -15178,7 +15177,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>106</v>
@@ -15197,7 +15196,7 @@
         <v>38322</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>43070</v>
@@ -15224,7 +15223,7 @@
         <v>46722</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
         <v>49</v>
       </c>
@@ -15239,7 +15238,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43101</v>
       </c>
@@ -15263,7 +15262,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>52</v>
@@ -15285,7 +15284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>52</v>
@@ -15307,7 +15306,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43132</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43160</v>
       </c>
@@ -15357,7 +15356,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>54</v>
@@ -15379,7 +15378,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>52</v>
@@ -15401,7 +15400,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>52</v>
@@ -15423,7 +15422,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43191</v>
       </c>
@@ -15449,7 +15448,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>52</v>
@@ -15471,7 +15470,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43221</v>
       </c>
@@ -15497,7 +15496,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>52</v>
@@ -15519,7 +15518,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43252</v>
       </c>
@@ -15539,7 +15538,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43282</v>
       </c>
@@ -15559,7 +15558,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43313</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>52</v>
@@ -15607,7 +15606,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43344</v>
       </c>
@@ -15633,7 +15632,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>52</v>
@@ -15655,7 +15654,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43374</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>55</v>
@@ -15701,7 +15700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>52</v>
@@ -15723,7 +15722,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43405</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43435</v>
       </c>
@@ -15775,7 +15774,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>58</v>
@@ -15797,7 +15796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>50</v>
       </c>
@@ -15815,7 +15814,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43466</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43497</v>
       </c>
@@ -15867,7 +15866,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>52</v>
@@ -15889,7 +15888,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>43525</v>
       </c>
@@ -15909,7 +15908,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43556</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>55</v>
@@ -15957,7 +15956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>52</v>
@@ -15979,7 +15978,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>52</v>
@@ -16001,7 +16000,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>43586</v>
       </c>
@@ -16027,7 +16026,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>58</v>
@@ -16049,7 +16048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43617</v>
       </c>
@@ -16073,7 +16072,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>62</v>
@@ -16093,7 +16092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>58</v>
@@ -16115,7 +16114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>43647</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>52</v>
@@ -16163,7 +16162,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>55</v>
@@ -16185,7 +16184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43678</v>
       </c>
@@ -16211,7 +16210,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>52</v>
@@ -16233,7 +16232,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>43709</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43739</v>
       </c>
@@ -16285,7 +16284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>52</v>
@@ -16307,7 +16306,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>52</v>
@@ -16329,7 +16328,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>55</v>
@@ -16351,7 +16350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43770</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>55</v>
@@ -16399,7 +16398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>69</v>
@@ -16421,7 +16420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>43800</v>
       </c>
@@ -16447,7 +16446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="48" t="s">
         <v>47</v>
       </c>
@@ -16465,7 +16464,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43831</v>
       </c>
@@ -16491,7 +16490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>58</v>
@@ -16513,7 +16512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43862</v>
       </c>
@@ -16537,7 +16536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>52</v>
@@ -16559,7 +16558,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>52</v>
@@ -16581,7 +16580,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43891</v>
       </c>
@@ -16601,7 +16600,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43922</v>
       </c>
@@ -16621,7 +16620,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>43952</v>
       </c>
@@ -16641,7 +16640,7 @@
       <c r="J582" s="12"/>
       <c r="K582" s="15"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43983</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44013</v>
       </c>
@@ -16691,7 +16690,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44044</v>
       </c>
@@ -16717,7 +16716,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -16739,7 +16738,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44075</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>52</v>
@@ -16787,7 +16786,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44105</v>
       </c>
@@ -16811,7 +16810,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44136</v>
       </c>
@@ -16831,7 +16830,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44166</v>
       </c>
@@ -16857,7 +16856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>83</v>
@@ -16877,7 +16876,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="48" t="s">
         <v>79</v>
       </c>
@@ -16895,7 +16894,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44197</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44228</v>
       </c>
@@ -16939,7 +16938,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>44256</v>
       </c>
@@ -16959,7 +16958,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>44287</v>
       </c>
@@ -16979,7 +16978,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>44317</v>
       </c>
@@ -17003,7 +17002,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>44348</v>
       </c>
@@ -17023,7 +17022,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44378</v>
       </c>
@@ -17043,7 +17042,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>44409</v>
       </c>
@@ -17063,7 +17062,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44440</v>
       </c>
@@ -17083,7 +17082,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44470</v>
       </c>
@@ -17109,7 +17108,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44501</v>
       </c>
@@ -17135,7 +17134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>55</v>
@@ -17157,7 +17156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>44531</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="48" t="s">
         <v>48</v>
       </c>
@@ -17201,7 +17200,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44562</v>
       </c>
@@ -17225,7 +17224,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44593</v>
       </c>
@@ -17245,7 +17244,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>44621</v>
       </c>
@@ -17265,7 +17264,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44652</v>
       </c>
@@ -17285,7 +17284,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44682</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44713</v>
       </c>
@@ -17331,7 +17330,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44743</v>
       </c>
@@ -17357,7 +17356,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>58</v>
@@ -17379,7 +17378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44774</v>
       </c>
@@ -17405,7 +17404,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44805</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44835</v>
       </c>
@@ -17457,7 +17456,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44866</v>
       </c>
@@ -17483,7 +17482,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>51</v>
@@ -17503,7 +17502,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>51</v>
@@ -17523,7 +17522,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44896</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="48" t="s">
         <v>90</v>
       </c>
@@ -17567,7 +17566,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>44927</v>
       </c>
@@ -17593,7 +17592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>51</v>
@@ -17613,7 +17612,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>52</v>
@@ -17635,7 +17634,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44958</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44986</v>
       </c>
@@ -17681,7 +17680,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>45017</v>
       </c>
@@ -17701,7 +17700,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>45047</v>
       </c>
@@ -17727,7 +17726,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>45078</v>
       </c>
@@ -17753,7 +17752,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>45108</v>
       </c>
@@ -17775,7 +17774,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>463</v>
@@ -17797,11 +17796,11 @@
         <v>464</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A634" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B634" s="20"/>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="40"/>
+      <c r="B634" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
@@ -17810,14 +17809,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H634" s="39"/>
+      <c r="H634" s="39">
+        <v>1</v>
+      </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K634" s="49">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17833,9 +17836,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17851,9 +17854,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17869,9 +17872,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17887,9 +17890,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17905,9 +17908,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17923,9 +17926,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17941,9 +17944,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17959,9 +17962,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17977,9 +17980,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17995,9 +17998,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18013,9 +18016,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18031,9 +18034,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18049,9 +18052,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18067,9 +18070,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18085,9 +18088,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18103,9 +18106,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18121,9 +18124,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18139,9 +18142,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18157,9 +18160,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18175,9 +18178,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18193,9 +18196,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18211,9 +18214,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18229,9 +18232,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18247,9 +18250,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18265,9 +18268,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18283,9 +18286,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18301,9 +18304,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18319,9 +18322,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18337,9 +18340,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18355,9 +18358,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18373,9 +18376,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18391,9 +18394,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18409,9 +18412,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18427,9 +18430,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18445,9 +18448,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18463,9 +18466,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18481,9 +18484,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18499,9 +18502,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18517,9 +18520,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18535,9 +18538,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18553,9 +18556,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18571,9 +18574,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18589,9 +18592,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18607,9 +18610,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18625,9 +18628,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18643,9 +18646,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18661,9 +18664,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18679,9 +18682,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18697,9 +18700,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18715,9 +18718,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18733,9 +18736,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18751,9 +18754,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18769,9 +18772,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18787,9 +18790,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18805,9 +18808,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18823,9 +18826,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18841,9 +18844,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18859,9 +18862,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18877,9 +18880,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18895,9 +18898,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18913,9 +18916,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18931,8 +18934,10 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A697" s="40"/>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="40">
+        <v>47027</v>
+      </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
       <c r="D697" s="39"/>
@@ -18947,7 +18952,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18963,7 +18968,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18979,7 +18984,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18995,7 +19000,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19011,7 +19016,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19027,7 +19032,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19043,7 +19048,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19059,7 +19064,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19075,21 +19080,37 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A706" s="41"/>
-      <c r="B706" s="15"/>
-      <c r="C706" s="42"/>
-      <c r="D706" s="43"/>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="40"/>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
       <c r="E706" s="9"/>
-      <c r="F706" s="15"/>
-      <c r="G706" s="42" t="str">
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H706" s="43"/>
+      <c r="H706" s="39"/>
       <c r="I706" s="9"/>
-      <c r="J706" s="12"/>
-      <c r="K706" s="15"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="41"/>
+      <c r="B707" s="15"/>
+      <c r="C707" s="42"/>
+      <c r="D707" s="43"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="15"/>
+      <c r="G707" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="43"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="12"/>
+      <c r="K707" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19107,10 +19128,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19136,28 +19157,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -19170,7 +19191,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19199,7 +19220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -19223,17 +19244,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19254,7 +19275,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19281,7 +19302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19307,7 +19328,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19333,7 +19354,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19359,7 +19380,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19385,7 +19406,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19411,7 +19432,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19437,7 +19458,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19463,7 +19484,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19483,7 +19504,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19503,7 +19524,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19523,7 +19544,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19544,7 +19565,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19565,7 +19586,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19586,7 +19607,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19607,7 +19628,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19628,7 +19649,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19649,7 +19670,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19670,7 +19691,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19691,7 +19712,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19712,7 +19733,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19733,7 +19754,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19754,7 +19775,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19775,7 +19796,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19796,7 +19817,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19817,7 +19838,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19838,7 +19859,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19859,7 +19880,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19880,7 +19901,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19901,7 +19922,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19922,7 +19943,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19943,7 +19964,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19952,7 +19973,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19961,7 +19982,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19970,7 +19991,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19979,7 +20000,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19988,7 +20009,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19997,7 +20018,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20006,7 +20027,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20015,7 +20036,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20024,7 +20045,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20033,7 +20054,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20042,7 +20063,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20051,7 +20072,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20060,7 +20081,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20069,7 +20090,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20078,7 +20099,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20087,7 +20108,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20096,7 +20117,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20105,7 +20126,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20114,7 +20135,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20123,7 +20144,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20132,7 +20153,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20141,7 +20162,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20150,7 +20171,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20159,7 +20180,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20168,7 +20189,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20177,7 +20198,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20186,7 +20207,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20195,7 +20216,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20204,7 +20225,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
